--- a/宏发继电器型号对照表.xlsx
+++ b/宏发继电器型号对照表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
@@ -11,17 +11,19 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$74</definedName>
+    <definedName name="Z_4499F77F_7154_4FB3_B480_FA35E3FDC3A3_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$1:$M$74</definedName>
     <definedName name="Z_ADD0BC07_8A31_4198_9547_FACFA44AE734_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$1:$M$74</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
   <customWorkbookViews>
+    <customWorkbookView name="AutoBVT - 个人视图" guid="{4499F77F-7154-4FB3-B480-FA35E3FDC3A3}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1485" windowHeight="784" activeSheetId="1"/>
     <customWorkbookView name="Windows User - 个人视图" guid="{ADD0BC07-8A31-4198-9547-FACFA44AE734}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="524" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="308">
   <si>
     <t>宏发型号</t>
   </si>
@@ -949,14 +951,18 @@
   </si>
   <si>
     <t>SRI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霞霞是个大猪猪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1021,7 +1027,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1049,6 +1055,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1069,7 +1078,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FEE4D0C6-526D-42F2-8FF2-FBDB87C8EE78}" diskRevisions="1" revisionId="12" version="4" preserveHistory="9999">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{B8500DC8-8E33-46B4-B703-86B13624E666}" diskRevisions="1" revisionId="14" version="5" preserveHistory="9999">
   <header guid="{72C42C1B-0512-4885-9700-C36BB6C58484}" dateTime="2018-10-12T09:30:08" maxSheetId="2" userName="Windows User" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -1090,10 +1099,34 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{B8500DC8-8E33-46B4-B703-86B13624E666}" dateTime="2018-10-12T16:52:01" maxSheetId="2" userName="AutoBVT" r:id="rId5" minRId="13">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="13" sId="1" odxf="1" dxf="1">
+    <nc r="N15" t="inlineStr">
+      <is>
+        <t>霞霞是个大猪猪</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_4499F77F_7154_4FB3_B480_FA35E3FDC3A3_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet1!$A$1:$M$74</formula>
+  </rdn>
+  <rcv guid="{4499F77F-7154-4FB3-B480-FA35E3FDC3A3}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
@@ -3158,15 +3191,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
+      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="15.75" style="6" customWidth="1"/>
     <col min="3" max="3" width="18.375" style="6" customWidth="1"/>
@@ -3184,7 +3217,7 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3197,11 +3230,11 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -3224,7 +3257,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="21" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -3252,7 +3285,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="21" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -3274,7 +3307,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="21" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -3308,7 +3341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="21" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -3342,7 +3375,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="21" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
@@ -3374,7 +3407,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="21" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -3404,7 +3437,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="21" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
@@ -3422,7 +3455,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="21" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
@@ -3460,7 +3493,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="21" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>52</v>
       </c>
@@ -3494,7 +3527,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="21" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>58</v>
       </c>
@@ -3520,7 +3553,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="21" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>64</v>
       </c>
@@ -3542,7 +3575,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="21" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>67</v>
       </c>
@@ -3570,7 +3603,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="21" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>72</v>
       </c>
@@ -3596,7 +3629,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="21" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
@@ -3621,8 +3654,11 @@
       <c r="L15" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N15" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="21" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>75</v>
       </c>
@@ -3648,7 +3684,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="21" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -3676,7 +3712,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" ht="21" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>77</v>
       </c>
@@ -3710,7 +3746,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" ht="21" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>84</v>
       </c>
@@ -3738,7 +3774,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" ht="21" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>90</v>
       </c>
@@ -3758,7 +3794,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" ht="21" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>93</v>
       </c>
@@ -3788,7 +3824,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" ht="21" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>98</v>
       </c>
@@ -3818,7 +3854,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" ht="21" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>104</v>
       </c>
@@ -3846,7 +3882,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" ht="21" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>110</v>
       </c>
@@ -3872,7 +3908,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" ht="21" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>115</v>
       </c>
@@ -3900,7 +3936,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" ht="21" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>121</v>
       </c>
@@ -3926,7 +3962,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" ht="21" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>127</v>
       </c>
@@ -3958,7 +3994,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" ht="21" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>135</v>
       </c>
@@ -3986,7 +4022,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" ht="21" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>139</v>
       </c>
@@ -4014,7 +4050,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" ht="21" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>140</v>
       </c>
@@ -4042,7 +4078,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" ht="21" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>142</v>
       </c>
@@ -4078,7 +4114,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" ht="21" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>151</v>
       </c>
@@ -4102,7 +4138,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12" ht="21" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>154</v>
       </c>
@@ -4128,7 +4164,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12" ht="21" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>157</v>
       </c>
@@ -4154,7 +4190,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" ht="21" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>160</v>
       </c>
@@ -4178,7 +4214,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" ht="21" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>164</v>
       </c>
@@ -4198,7 +4234,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12" ht="21" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>166</v>
       </c>
@@ -4218,7 +4254,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12" ht="21" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>168</v>
       </c>
@@ -4244,7 +4280,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12" ht="21" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>170</v>
       </c>
@@ -4264,7 +4300,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12" ht="21" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>172</v>
       </c>
@@ -4290,7 +4326,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12" ht="21" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>174</v>
       </c>
@@ -4314,7 +4350,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12" ht="21" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>175</v>
       </c>
@@ -4340,7 +4376,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12" ht="21" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>176</v>
       </c>
@@ -4368,7 +4404,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12" ht="21" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>179</v>
       </c>
@@ -4392,7 +4428,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12" ht="21" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>180</v>
       </c>
@@ -4416,7 +4452,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12" ht="21" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>181</v>
       </c>
@@ -4438,7 +4474,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12" ht="21" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>184</v>
       </c>
@@ -4460,7 +4496,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12" ht="21" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>187</v>
       </c>
@@ -4486,7 +4522,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" ht="21" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>191</v>
       </c>
@@ -4524,7 +4560,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" ht="21" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>199</v>
       </c>
@@ -4556,7 +4592,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" ht="21" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>202</v>
       </c>
@@ -4578,7 +4614,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" ht="21" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>203</v>
       </c>
@@ -4610,7 +4646,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" ht="21" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>209</v>
       </c>
@@ -4634,7 +4670,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" ht="21" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>210</v>
       </c>
@@ -4656,7 +4692,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" ht="21" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>214</v>
       </c>
@@ -4678,7 +4714,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" ht="21" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>217</v>
       </c>
@@ -4698,7 +4734,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" ht="21" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>220</v>
       </c>
@@ -4733,7 +4769,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" ht="21" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>221</v>
       </c>
@@ -4753,7 +4789,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" ht="21" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>223</v>
       </c>
@@ -4773,7 +4809,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" ht="21" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>226</v>
       </c>
@@ -4797,7 +4833,7 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13" ht="21" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>228</v>
       </c>
@@ -4829,7 +4865,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13" ht="21" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>232</v>
       </c>
@@ -4857,7 +4893,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:13" ht="21" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>233</v>
       </c>
@@ -4883,7 +4919,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:13" ht="21" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>234</v>
       </c>
@@ -4911,7 +4947,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:14" ht="21" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>239</v>
       </c>
@@ -4933,7 +4969,7 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14" ht="21" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>242</v>
       </c>
@@ -4965,7 +5001,7 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14" ht="21" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>251</v>
       </c>
@@ -5001,7 +5037,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14" ht="21" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>260</v>
       </c>
@@ -5035,7 +5071,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14" ht="21" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>268</v>
       </c>
@@ -5065,7 +5101,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:14" ht="21" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>274</v>
       </c>
@@ -5087,7 +5123,7 @@
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" ht="21" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>277</v>
       </c>
@@ -5115,7 +5151,7 @@
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14" ht="21" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>284</v>
       </c>
@@ -5145,7 +5181,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14" ht="21" customHeight="1">
       <c r="A73" s="4" t="s">
         <v>290</v>
       </c>
@@ -5171,7 +5207,7 @@
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14" ht="21" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>295</v>
       </c>
@@ -5201,7 +5237,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:14" ht="21" customHeight="1">
       <c r="A75" s="4" t="s">
         <v>303</v>
       </c>
@@ -5220,6 +5256,16 @@
     <filterColumn colId="10" showButton="0"/>
   </autoFilter>
   <customSheetViews>
+    <customSheetView guid="{4499F77F-7154-4FB3-B480-FA35E3FDC3A3}" scale="70" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+      <autoFilter ref="A1:M74">
+        <filterColumn colId="4" showButton="0"/>
+        <filterColumn colId="5" showButton="0"/>
+        <filterColumn colId="10" showButton="0"/>
+      </autoFilter>
+    </customSheetView>
     <customSheetView guid="{ADD0BC07-8A31-4198-9547-FACFA44AE734}" scale="70" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
